--- a/core/utils/docs_proj_p/distgradeunificada18.xlsx
+++ b/core/utils/docs_proj_p/distgradeunificada18.xlsx
@@ -749,7 +749,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1018,9 +1018,9 @@
   <dimension ref="A1:V384"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A329" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A385" activeCellId="0" sqref="A385"/>
+      <selection pane="bottomLeft" activeCell="X17" activeCellId="0" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4497,7 +4497,7 @@
       <c r="U67" s="13"/>
       <c r="V67" s="13"/>
     </row>
-    <row r="68" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
         <v>18</v>
       </c>
@@ -6139,7 +6139,7 @@
       <c r="U95" s="13"/>
       <c r="V95" s="13"/>
     </row>
-    <row r="96" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
         <v>18</v>
       </c>
@@ -6879,7 +6879,7 @@
       <c r="U115" s="14"/>
       <c r="V115" s="14"/>
     </row>
-    <row r="116" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="6" t="s">
         <v>18</v>
       </c>
@@ -7887,7 +7887,7 @@
       <c r="U143" s="14"/>
       <c r="V143" s="14"/>
     </row>
-    <row r="144" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="6" t="s">
         <v>18</v>
       </c>
@@ -8595,7 +8595,7 @@
       <c r="U163" s="14"/>
       <c r="V163" s="14"/>
     </row>
-    <row r="164" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="6" t="s">
         <v>18</v>
       </c>
@@ -9603,7 +9603,7 @@
       <c r="U191" s="14"/>
       <c r="V191" s="14"/>
     </row>
-    <row r="192" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="6" t="s">
         <v>18</v>
       </c>
@@ -10311,7 +10311,7 @@
       <c r="U211" s="13"/>
       <c r="V211" s="13"/>
     </row>
-    <row r="212" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="6" t="s">
         <v>18</v>
       </c>
@@ -11319,7 +11319,7 @@
       <c r="U239" s="13"/>
       <c r="V239" s="13"/>
     </row>
-    <row r="240" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="6" t="s">
         <v>18</v>
       </c>
@@ -12027,7 +12027,7 @@
       <c r="U259" s="15"/>
       <c r="V259" s="15"/>
     </row>
-    <row r="260" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="6" t="s">
         <v>18</v>
       </c>
@@ -13035,7 +13035,7 @@
       <c r="U287" s="15"/>
       <c r="V287" s="15"/>
     </row>
-    <row r="288" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="6" t="s">
         <v>18</v>
       </c>
@@ -13743,7 +13743,7 @@
       <c r="U307" s="15"/>
       <c r="V307" s="15"/>
     </row>
-    <row r="308" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="6" t="s">
         <v>18</v>
       </c>
@@ -14751,7 +14751,7 @@
       <c r="U335" s="15"/>
       <c r="V335" s="15"/>
     </row>
-    <row r="336" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="336" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="6" t="s">
         <v>18</v>
       </c>
@@ -15459,7 +15459,7 @@
       <c r="U355" s="13"/>
       <c r="V355" s="13"/>
     </row>
-    <row r="356" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="356" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="6" t="s">
         <v>18</v>
       </c>
@@ -16467,7 +16467,7 @@
       <c r="U383" s="13"/>
       <c r="V383" s="13"/>
     </row>
-    <row r="384" customFormat="false" ht="21.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="384" customFormat="false" ht="20.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="6" t="s">
         <v>18</v>
       </c>
